--- a/data/aet_sample_fixed_hss_64.xlsx
+++ b/data/aet_sample_fixed_hss_64.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="21">
   <si>
     <t>base</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -98,6 +98,14 @@
   </si>
   <si>
     <t>cactus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pf ratio</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lbm</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -746,10 +754,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
@@ -759,12 +767,13 @@
     <col min="3" max="3" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="14.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="7" max="7" width="14.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -781,13 +790,16 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -808,15 +820,19 @@
         <v>69129.164372036525</v>
       </c>
       <c r="G2" s="1">
+        <f>E2/D2</f>
+        <v>1.446567464085405E-5</v>
+      </c>
+      <c r="H2" s="1">
         <f>C2/B2</f>
         <v>1.0719729043183741</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <f>E2/C2</f>
         <v>31573.646919431281</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -837,15 +853,19 @@
         <v>28575.911634649532</v>
       </c>
       <c r="G3" s="1">
+        <f t="shared" ref="G3:G10" si="0">E3/D3</f>
+        <v>3.4994509109114713E-5</v>
+      </c>
+      <c r="H3" s="1">
         <f>C3/B3</f>
         <v>1.1136950904392764</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <f>E3/C3</f>
         <v>33863.705336426916</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -862,19 +882,23 @@
         <v>8317195</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" ref="F4:F10" si="0">D4/E4</f>
+        <f t="shared" ref="F4:F10" si="1">D4/E4</f>
         <v>17229.825122171598</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" ref="G4:G10" si="1">C4/B4</f>
+        <f t="shared" si="0"/>
+        <v>5.8038894353790335E-5</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" ref="H4:H10" si="2">C4/B4</f>
         <v>1.0709677419354839</v>
       </c>
-      <c r="H4" s="1">
-        <f t="shared" ref="H4:H10" si="2">E4/C4</f>
+      <c r="I4" s="1">
+        <f t="shared" ref="I4:I10" si="3">E4/C4</f>
         <v>25051.792168674699</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -891,19 +915,23 @@
         <v>975016</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2000396.2552542728</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
+        <v>4.999009558098222E-7</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="2"/>
         <v>1.0134907251264755</v>
       </c>
-      <c r="H5" s="1">
-        <f t="shared" si="2"/>
+      <c r="I5" s="1">
+        <f t="shared" si="3"/>
         <v>1622.3227953410981</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -920,19 +948,23 @@
         <v>1383318</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>189085.95652337352</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
+        <v>5.2886000546338136E-6</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="2"/>
         <v>1.0318791946308725</v>
       </c>
-      <c r="H6" s="1">
-        <f t="shared" si="2"/>
+      <c r="I6" s="1">
+        <f t="shared" si="3"/>
         <v>6747.8926829268294</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -949,21 +981,28 @@
         <v>1352064</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>634974.52434574103</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
+        <v>1.5748663318900399E-6</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="2"/>
         <v>1.0154639175257731</v>
       </c>
-      <c r="H7" s="1">
-        <f t="shared" si="2"/>
+      <c r="I7" s="1">
+        <f t="shared" si="3"/>
         <v>6863.2690355329951</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="B8" s="1">
+        <v>216.66666666666666</v>
       </c>
       <c r="C8" s="1">
         <v>224</v>
@@ -975,22 +1014,29 @@
         <v>2441754</v>
       </c>
       <c r="F8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>142996.67106719187</v>
       </c>
-      <c r="G8" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>6.9931697887576408E-6</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" si="2"/>
+        <v>1.0338461538461539</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="3"/>
         <v>10900.6875</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="B9" s="1">
+        <v>385</v>
+      </c>
       <c r="C9" s="1">
         <v>397</v>
       </c>
@@ -1001,22 +1047,29 @@
         <v>3961062</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>195897.15709650595</v>
       </c>
-      <c r="G9" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>5.1047193069134962E-6</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" si="2"/>
+        <v>1.0311688311688312</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="3"/>
         <v>9977.4861460957181</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="B10" s="1">
+        <v>266.66666666666669</v>
+      </c>
       <c r="C10" s="1">
         <v>295</v>
       </c>
@@ -1027,15 +1080,19 @@
         <v>13369127</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19371.68201042596</v>
       </c>
-      <c r="G10" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="G10" s="1">
+        <f t="shared" si="0"/>
+        <v>5.1621743504864147E-5</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" si="2"/>
+        <v>1.10625</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="3"/>
         <v>45319.074576271189</v>
       </c>
     </row>
